--- a/Setup/LoadDimensions_humanhand.xlsx
+++ b/Setup/LoadDimensions_humanhand.xlsx
@@ -29,13 +29,13 @@
     <t>width</t>
   </si>
   <si>
-    <t>height</t>
+    <t>short edge</t>
   </si>
   <si>
-    <t>thickness</t>
+    <t>long edge</t>
   </si>
   <si>
-    <t>short edge</t>
+    <t>length</t>
   </si>
 </sst>
 </file>
@@ -366,23 +366,23 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10">

--- a/Setup/LoadDimensions_humanhand.xlsx
+++ b/Setup/LoadDimensions_humanhand.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>width</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>length</t>
+  </si>
+  <si>
+    <t>12.9</t>
+  </si>
+  <si>
+    <t>0.9</t>
   </si>
 </sst>
 </file>
@@ -389,11 +395,11 @@
       <c r="A2">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>12.9</v>
-      </c>
-      <c r="C2">
-        <v>0.9</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2">
         <v>3</v>
